--- a/box/二公寓一号楼（数据表） .xlsx
+++ b/box/二公寓一号楼（数据表） .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360安全浏览器下载\零食盒子5-20 (1)\零食盒子5-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BoxData\box\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="12-25" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="5-11" sheetId="15" r:id="rId6"/>
     <sheet name="5-18" sheetId="16" r:id="rId7"/>
     <sheet name="5-29" sheetId="17" r:id="rId8"/>
+    <sheet name="6-3" sheetId="18" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'03-27'!$A$3:$AZ$61</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="57">
   <si>
     <t>宿舍号</t>
   </si>
@@ -198,12 +199,16 @@
   <si>
     <t>*已撤</t>
   </si>
+  <si>
+    <t>雪碧可乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +233,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -362,7 +375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,6 +478,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,6 +536,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,148 +886,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36">
         <v>42729</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="38"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="39"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="40" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="43" t="s">
+      <c r="U2" s="42"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="41" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="46" t="s">
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="40" t="s">
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="47" t="s">
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="47" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
       <c r="AO2" s="7"/>
-      <c r="AS2" s="43" t="s">
+      <c r="AS2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="45"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="46"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
@@ -8433,132 +8452,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="38"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="39"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="15"/>
-      <c r="C2" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43" t="s">
+      <c r="C2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="40" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="41" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="46" t="s">
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="40" t="s">
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="41"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="47" t="s">
+      <c r="V2" s="42"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="47" t="s">
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="47" t="s">
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="47" t="s">
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
       <c r="AJ2" s="7"/>
-      <c r="AN2" s="43" t="s">
+      <c r="AN2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="46"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="13"/>
       <c r="C3" s="11" t="s">
         <v>15</v>
@@ -14947,123 +14966,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="38"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="39"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="15"/>
-      <c r="C2" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43" t="s">
+      <c r="C2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="40" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="41" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="46" t="s">
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="40" t="s">
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="41"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="47" t="s">
+      <c r="V2" s="42"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="47" t="s">
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="47" t="s">
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="49" t="s">
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
       <c r="AJ2" s="7"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="46"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="13"/>
       <c r="C3" s="11" t="s">
         <v>15</v>
@@ -19578,109 +19597,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="s">
+      <c r="C2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50" t="s">
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50" t="s">
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50" t="s">
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="52" t="s">
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -22196,109 +22215,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="s">
+      <c r="C2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50" t="s">
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50" t="s">
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50" t="s">
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="52" t="s">
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -24917,117 +24936,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="s">
+      <c r="C2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50" t="s">
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50" t="s">
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50" t="s">
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="52" t="s">
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="46" t="s">
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="49"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -27763,7 +27782,7 @@
   <dimension ref="A1:AT27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27773,117 +27792,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="s">
+      <c r="C2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50" t="s">
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50" t="s">
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50" t="s">
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="52" t="s">
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="46" t="s">
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="49"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -30678,8 +30697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30691,117 +30710,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="s">
+      <c r="C2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50" t="s">
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50" t="s">
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50" t="s">
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="52" t="s">
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="46" t="s">
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="49"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -33609,4 +33628,2710 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AW26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ28" sqref="AQ28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="4" width="3.375" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="41" width="3.375" customWidth="1"/>
+    <col min="42" max="43" width="7.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A2" s="51"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="2"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>201</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2">
+        <f>(C4)*0.9+(F4)*0.8+(I4)*4.5+(L4)+(O4)*3.8+R4+U4+X4*1.5+AA4*1.8+AD4*1.8+AG4*2+AJ4*2.5+AM4*1.5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2">
+        <f>(C4-D4)*0.9+(F4-G4)*0.8+(I4-J4)*4.5+(L4-M4)+(O4-P4)*3.8+(R4-S4)+(U4-V4)+(X4-Y4)*1.5+(AA4-AB4)*1.8+(AD4-AE4)*1.8+(AG4-AH4)*2+(AJ4-AK4)*2.5+(AM4-AN4)*1.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>214</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>3</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>8</v>
+      </c>
+      <c r="V5" s="2">
+        <v>5</v>
+      </c>
+      <c r="W5" s="2">
+        <v>-2</v>
+      </c>
+      <c r="X5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="2">
+        <f t="shared" ref="AP5:AP24" si="0">(C5)*0.9+(F5)*0.8+(I5)*4.5+(L5)+(O5)*3.8+R5+U5+X5*1.5+AA5*1.8+AD5*1.8+AG5*2+AJ5*2.5+AM5*1.5</f>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AQ5" s="2">
+        <f t="shared" ref="AQ5:AQ24" si="1">(C5-D5)*0.9+(F5-G5)*0.8+(I5-J5)*4.5+(L5-M5)+(O5-P5)*3.8+(R5-S5)+(U5-V5)+(X5-Y5)*1.5+(AA5-AB5)*1.8+(AD5-AE5)*1.8+(AG5-AH5)*2+(AJ5-AK5)*2.5+(AM5-AN5)*1.5</f>
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>217</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>8</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2">
+        <f t="shared" si="0"/>
+        <v>70.8</v>
+      </c>
+      <c r="AQ6" s="2">
+        <f t="shared" si="1"/>
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>219</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2">
+        <v>2</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2">
+        <f t="shared" si="0"/>
+        <v>35.6</v>
+      </c>
+      <c r="AQ7" s="2">
+        <f t="shared" si="1"/>
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>302</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
+        <v>2</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2">
+        <v>4</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2">
+        <f t="shared" si="0"/>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="AQ8" s="2">
+        <f t="shared" si="1"/>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>319</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>2</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2">
+        <f t="shared" si="0"/>
+        <v>35.6</v>
+      </c>
+      <c r="AQ9" s="2">
+        <f t="shared" si="1"/>
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>328</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>331</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>10</v>
+      </c>
+      <c r="V11" s="2">
+        <v>7</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2">
+        <v>6</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
+        <f t="shared" si="0"/>
+        <v>63.7</v>
+      </c>
+      <c r="AQ11" s="2">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>332</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>10</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>7</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2</v>
+      </c>
+      <c r="U12" s="2">
+        <v>6</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>6</v>
+      </c>
+      <c r="X12" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2">
+        <f t="shared" si="0"/>
+        <v>109.3</v>
+      </c>
+      <c r="AQ12" s="2">
+        <f t="shared" si="1"/>
+        <v>94.300000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>408</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>419</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>3</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2">
+        <v>5</v>
+      </c>
+      <c r="V14" s="2">
+        <v>3</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>8</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2">
+        <f t="shared" si="0"/>
+        <v>107.9</v>
+      </c>
+      <c r="AQ14" s="2">
+        <f t="shared" si="1"/>
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>529</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>6</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5</v>
+      </c>
+      <c r="O15" s="2">
+        <v>4</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>10</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>5</v>
+      </c>
+      <c r="X15" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2">
+        <v>6</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>14</v>
+      </c>
+      <c r="AP15" s="2">
+        <f t="shared" si="0"/>
+        <v>160.69999999999999</v>
+      </c>
+      <c r="AQ15" s="2">
+        <f t="shared" si="1"/>
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>538</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>4</v>
+      </c>
+      <c r="V16" s="2">
+        <v>4</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2">
+        <v>8</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>7</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>-2</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>7</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>6</v>
+      </c>
+      <c r="AP16" s="2">
+        <f t="shared" si="0"/>
+        <v>107.1</v>
+      </c>
+      <c r="AQ16" s="2">
+        <f t="shared" si="1"/>
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>542</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>8</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>5</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2">
+        <v>10</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>4</v>
+      </c>
+      <c r="X17" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP17" s="2">
+        <f t="shared" si="0"/>
+        <v>91.9</v>
+      </c>
+      <c r="AQ17" s="2">
+        <f t="shared" si="1"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>607</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2">
+        <f t="shared" si="0"/>
+        <v>76.800000000000011</v>
+      </c>
+      <c r="AQ18" s="2">
+        <f t="shared" si="1"/>
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>608</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>4</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>5</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2">
+        <v>4</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>8</v>
+      </c>
+      <c r="X19" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>7</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>8</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>-2</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>10</v>
+      </c>
+      <c r="AP19" s="2">
+        <f t="shared" si="0"/>
+        <v>97.1</v>
+      </c>
+      <c r="AQ19" s="2">
+        <f t="shared" si="1"/>
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>629</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>4</v>
+      </c>
+      <c r="M20" s="2">
+        <v>4</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2">
+        <v>10</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2">
+        <v>8</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2">
+        <v>10</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2">
+        <v>11</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2">
+        <f t="shared" si="0"/>
+        <v>133.1</v>
+      </c>
+      <c r="AQ20" s="2">
+        <f t="shared" si="1"/>
+        <v>128.30000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>715</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>3</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>5</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2">
+        <v>2</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>6</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>10</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>6</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AM21" s="2">
+        <v>8</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>12</v>
+      </c>
+      <c r="AP21" s="2">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="AQ21" s="2">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>719</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>3</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>3</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>2</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>10</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>12</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="2">
+        <f t="shared" si="0"/>
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AQ22" s="2">
+        <f t="shared" si="1"/>
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>733</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>3</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2">
+        <v>3</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>3</v>
+      </c>
+      <c r="U23" s="2">
+        <v>4</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>8</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>10</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>12</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>12</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP23" s="2">
+        <f t="shared" si="0"/>
+        <v>109.4</v>
+      </c>
+      <c r="AQ23" s="2">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>740</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>5</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>10</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1</v>
+      </c>
+      <c r="W24" s="2">
+        <v>6</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>-4</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>-2</v>
+      </c>
+      <c r="AP24" s="2">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="AQ24" s="2">
+        <f t="shared" si="1"/>
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2">
+        <f>SUM(C23:C24)</f>
+        <v>24</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <f>SUM(F23:F24)</f>
+        <v>3</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <f>SUM(I23:I24)</f>
+        <v>4</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2">
+        <f>SUM(L23:L24)</f>
+        <v>7</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2">
+        <f>SUM(O23:O24)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2">
+        <f>SUM(R23:R24)</f>
+        <v>4</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2">
+        <f>SUM(U23:U24)</f>
+        <v>14</v>
+      </c>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2">
+        <f>SUM(X23:X24)</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2">
+        <f>SUM(AA23:AA24)</f>
+        <v>17</v>
+      </c>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2">
+        <f>SUM(AP4:AP24)</f>
+        <v>1547.8999999999999</v>
+      </c>
+      <c r="AQ25" s="2">
+        <f>SUM(AQ4:AQ24)</f>
+        <v>1165.8999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AQ26">
+        <v>1165.9000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:AQ1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/box/二公寓一号楼（数据表） .xlsx
+++ b/box/二公寓一号楼（数据表） .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="12-25" sheetId="7" r:id="rId1"/>
@@ -21,16 +21,18 @@
     <sheet name="5-18" sheetId="16" r:id="rId7"/>
     <sheet name="5-29" sheetId="17" r:id="rId8"/>
     <sheet name="6-3" sheetId="18" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'03-27'!$A$3:$AZ$61</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="60">
   <si>
     <t>宿舍号</t>
   </si>
@@ -203,12 +205,24 @@
     <t>雪碧可乐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>雪碧可乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>**已撤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +258,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -375,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,6 +501,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,6 +563,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,148 +921,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37">
         <v>42729</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="39"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="40"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="44" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="41" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="44" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="42" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="47" t="s">
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="41" t="s">
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="48" t="s">
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="48" t="s">
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
       <c r="AO2" s="7"/>
-      <c r="AS2" s="44" t="s">
+      <c r="AS2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="47"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
@@ -8422,6 +8457,2096 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AW26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:AO13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="4" width="3.375" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="41" width="3.375" customWidth="1"/>
+    <col min="42" max="43" width="7.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A2" s="52"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="2"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A3" s="52"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>201</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <v>8</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2">
+        <f>(C4)*0.9+(F4)*0.8+(I4)*4.5+(L4)+(O4)*3.8+R4+U4+X4*1.5+AA4*1.8+AD4*1.8+AG4*2+AJ4*2.5+AM4*1.5</f>
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AQ4" s="2">
+        <f>(C4-D4)*0.9+(F4-G4)*0.8+(I4-J4)*4.5+(L4-M4)+(O4-P4)*3.8+(R4-S4)+(U4-V4)+(X4-Y4)*1.5+(AA4-AB4)*1.8+(AD4-AE4)*1.8+(AG4-AH4)*2+(AJ4-AK4)*2.5+(AM4-AN4)*1.5</f>
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>214</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2">
+        <f t="shared" ref="AP5:AP24" si="0">(C5)*0.9+(F5)*0.8+(I5)*4.5+(L5)+(O5)*3.8+R5+U5+X5*1.5+AA5*1.8+AD5*1.8+AG5*2+AJ5*2.5+AM5*1.5</f>
+        <v>47.4</v>
+      </c>
+      <c r="AQ5" s="2">
+        <f t="shared" ref="AQ5:AQ24" si="1">(C5-D5)*0.9+(F5-G5)*0.8+(I5-J5)*4.5+(L5-M5)+(O5-P5)*3.8+(R5-S5)+(U5-V5)+(X5-Y5)*1.5+(AA5-AB5)*1.8+(AD5-AE5)*1.8+(AG5-AH5)*2+(AJ5-AK5)*2.5+(AM5-AN5)*1.5</f>
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="28">
+        <v>217</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>1</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <v>2</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28">
+        <v>0</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28">
+        <v>1</v>
+      </c>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28">
+        <v>0</v>
+      </c>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28">
+        <v>0</v>
+      </c>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28">
+        <f t="shared" si="0"/>
+        <v>24.400000000000002</v>
+      </c>
+      <c r="AQ6" s="28">
+        <f t="shared" si="1"/>
+        <v>24.400000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="28">
+        <v>219</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>2</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
+        <v>1</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28">
+        <v>1</v>
+      </c>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28">
+        <v>0</v>
+      </c>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28">
+        <f t="shared" si="0"/>
+        <v>13.4</v>
+      </c>
+      <c r="AQ7" s="28">
+        <f t="shared" si="1"/>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="28">
+        <v>302</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28">
+        <v>4</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>3</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
+        <v>1</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28">
+        <v>1</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28">
+        <v>0</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28">
+        <v>0</v>
+      </c>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28">
+        <v>0</v>
+      </c>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28">
+        <f t="shared" si="0"/>
+        <v>24.6</v>
+      </c>
+      <c r="AQ8" s="28">
+        <f t="shared" si="1"/>
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>319</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2">
+        <f t="shared" si="0"/>
+        <v>13.4</v>
+      </c>
+      <c r="AQ9" s="2">
+        <f t="shared" si="1"/>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>328</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2">
+        <v>3</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2">
+        <v>9</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2">
+        <f t="shared" si="0"/>
+        <v>69.400000000000006</v>
+      </c>
+      <c r="AQ10" s="2">
+        <f t="shared" si="1"/>
+        <v>69.400000000000006</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28">
+        <v>331</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28">
+        <v>12</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>3</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28">
+        <v>1</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28">
+        <v>3</v>
+      </c>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28">
+        <v>0</v>
+      </c>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28">
+        <v>2</v>
+      </c>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28">
+        <v>7</v>
+      </c>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28">
+        <f t="shared" si="0"/>
+        <v>54.400000000000006</v>
+      </c>
+      <c r="AQ11" s="28">
+        <f t="shared" si="1"/>
+        <v>54.400000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>332</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <v>7</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2">
+        <v>2</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2">
+        <v>6</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2">
+        <v>12</v>
+      </c>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2">
+        <f t="shared" si="0"/>
+        <v>79.900000000000006</v>
+      </c>
+      <c r="AQ12" s="2">
+        <f t="shared" si="1"/>
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>408</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2">
+        <v>5</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2">
+        <v>8</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2">
+        <v>12</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO13" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP13" s="2">
+        <f t="shared" si="0"/>
+        <v>95.4</v>
+      </c>
+      <c r="AQ13" s="2">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="28">
+        <v>419</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="28">
+        <v>5</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="28">
+        <v>4</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28">
+        <v>2</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28">
+        <v>5</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28">
+        <v>0</v>
+      </c>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28">
+        <v>0</v>
+      </c>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28">
+        <v>3</v>
+      </c>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28">
+        <f t="shared" si="0"/>
+        <v>49.4</v>
+      </c>
+      <c r="AQ14" s="28">
+        <f t="shared" si="1"/>
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="28">
+        <v>529</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="28">
+        <v>11</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>9</v>
+      </c>
+      <c r="G15" s="28">
+        <v>2</v>
+      </c>
+      <c r="H15" s="28">
+        <v>5</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28">
+        <v>3</v>
+      </c>
+      <c r="L15" s="28">
+        <v>5</v>
+      </c>
+      <c r="M15" s="28">
+        <v>1</v>
+      </c>
+      <c r="N15" s="28">
+        <v>5</v>
+      </c>
+      <c r="O15" s="28">
+        <v>0</v>
+      </c>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28">
+        <v>3</v>
+      </c>
+      <c r="R15" s="28">
+        <v>0</v>
+      </c>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28">
+        <v>2</v>
+      </c>
+      <c r="U15" s="28">
+        <v>5</v>
+      </c>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28">
+        <v>14</v>
+      </c>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28">
+        <f t="shared" si="0"/>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AQ15" s="28">
+        <f t="shared" si="1"/>
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>538</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
+        <v>3</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2">
+        <v>4</v>
+      </c>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2">
+        <v>7</v>
+      </c>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2">
+        <f t="shared" si="0"/>
+        <v>57.7</v>
+      </c>
+      <c r="AQ16" s="2">
+        <f t="shared" si="1"/>
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>542</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
+        <v>5</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2">
+        <v>4</v>
+      </c>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
+      </c>
+      <c r="AQ17" s="2">
+        <f t="shared" si="1"/>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28">
+        <v>607</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="28">
+        <v>0</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28">
+        <v>0</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28">
+        <v>0</v>
+      </c>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="AQ18" s="28">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>608</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <v>5</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2">
+        <v>8</v>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2">
+        <v>8</v>
+      </c>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2">
+        <f t="shared" si="0"/>
+        <v>82.699999999999989</v>
+      </c>
+      <c r="AQ19" s="2">
+        <f t="shared" si="1"/>
+        <v>82.699999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>629</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
+        <v>4</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="AQ20" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>715</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
+        <v>5</v>
+      </c>
+      <c r="M21" s="2">
+        <v>5</v>
+      </c>
+      <c r="N21" s="2">
+        <v>-3</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2">
+        <v>9</v>
+      </c>
+      <c r="V21" s="2">
+        <v>7</v>
+      </c>
+      <c r="W21" s="2">
+        <v>-2</v>
+      </c>
+      <c r="X21" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2">
+        <v>6</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2">
+        <v>12</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2">
+        <f t="shared" si="0"/>
+        <v>101.1</v>
+      </c>
+      <c r="AQ21" s="2">
+        <f t="shared" si="1"/>
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="28">
+        <v>719</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28">
+        <v>0</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28">
+        <v>0</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28">
+        <v>0</v>
+      </c>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28">
+        <v>0</v>
+      </c>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28">
+        <v>0</v>
+      </c>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28">
+        <v>0</v>
+      </c>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="AQ22" s="28">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>733</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2">
+        <v>3</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2">
+        <v>3</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2">
+        <v>8</v>
+      </c>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2">
+        <v>8</v>
+      </c>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2">
+        <f t="shared" si="0"/>
+        <v>91.1</v>
+      </c>
+      <c r="AQ23" s="2">
+        <f t="shared" si="1"/>
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>740</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2">
+        <v>5</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2">
+        <v>7</v>
+      </c>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2">
+        <f t="shared" si="0"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AQ24" s="2">
+        <f t="shared" si="1"/>
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2">
+        <f>SUM(C23:C24)</f>
+        <v>16</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <f>SUM(F23:F24)</f>
+        <v>4</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <f>SUM(I23:I24)</f>
+        <v>3</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2">
+        <f>SUM(L23:L24)</f>
+        <v>8</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2">
+        <f>SUM(O23:O24)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2">
+        <f>SUM(R23:R24)</f>
+        <v>3</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2">
+        <f>SUM(U23:U24)</f>
+        <v>15</v>
+      </c>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2">
+        <f>SUM(X23:X24)</f>
+        <v>15</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2">
+        <f>SUM(AA23:AA24)</f>
+        <v>6</v>
+      </c>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2">
+        <f>SUM(AP4:AP24)</f>
+        <v>1060.7</v>
+      </c>
+      <c r="AQ25" s="2">
+        <f>SUM(AQ4:AQ24)</f>
+        <v>1004.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AQ26">
+        <v>1165.9000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="C1:AQ1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ76"/>
@@ -8452,132 +10577,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="39"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="40"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="15"/>
-      <c r="C2" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44" t="s">
+      <c r="C2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="42" t="s">
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="47" t="s">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="41" t="s">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="42"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="48" t="s">
+      <c r="V2" s="43"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="48" t="s">
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="48" t="s">
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="48" t="s">
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="50"/>
       <c r="AJ2" s="7"/>
-      <c r="AN2" s="44" t="s">
+      <c r="AN2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="47"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="13"/>
       <c r="C3" s="11" t="s">
         <v>15</v>
@@ -14966,123 +17091,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="39"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="40"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="15"/>
-      <c r="C2" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44" t="s">
+      <c r="C2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="42" t="s">
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="47" t="s">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="41" t="s">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="42"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="48" t="s">
+      <c r="V2" s="43"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="48" t="s">
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="48" t="s">
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="50" t="s">
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="50"/>
       <c r="AJ2" s="7"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="47"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="13"/>
       <c r="C3" s="11" t="s">
         <v>15</v>
@@ -19597,109 +21722,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51" t="s">
+      <c r="C2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51" t="s">
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51" t="s">
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51" t="s">
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="53" t="s">
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -22215,109 +24340,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51" t="s">
+      <c r="C2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51" t="s">
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51" t="s">
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51" t="s">
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="53" t="s">
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -24936,117 +27061,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51" t="s">
+      <c r="C2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51" t="s">
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51" t="s">
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51" t="s">
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="53" t="s">
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="47" t="s">
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="50"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -27792,117 +29917,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51" t="s">
+      <c r="C2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51" t="s">
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51" t="s">
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51" t="s">
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="53" t="s">
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="47" t="s">
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="50"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -30710,117 +32835,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51" t="s">
+      <c r="C2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51" t="s">
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51" t="s">
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51" t="s">
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="53" t="s">
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="47" t="s">
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="50"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -33634,8 +35759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ28" sqref="AQ28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33649,125 +35774,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="34"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="34"/>
-      <c r="C2" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51" t="s">
+      <c r="C2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51" t="s">
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51" t="s">
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51" t="s">
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="53" t="s">
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="47" t="s">
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
       <c r="AP2" s="34"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="34"/>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -36314,11 +38439,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:AQ1"/>
     <mergeCell ref="C2:E2"/>
@@ -36329,6 +38449,11 @@
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AJ2:AL2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
